--- a/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>692720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>661677</v>
+        <v>663690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>722102</v>
+        <v>723419</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6714201577726352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6413324785382772</v>
+        <v>0.6432826802133109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6998989490089691</v>
+        <v>0.7011754845674367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>863</v>
@@ -765,19 +765,19 @@
         <v>886450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>851566</v>
+        <v>854251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>919142</v>
+        <v>921107</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6740485777376144</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6475232834782687</v>
+        <v>0.6495646256328679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6989071595841374</v>
+        <v>0.7004014918304184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1557</v>
@@ -786,19 +786,19 @@
         <v>1579169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1536366</v>
+        <v>1533505</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1619416</v>
+        <v>1620355</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6728930638793719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6546542926784902</v>
+        <v>0.6534352471047924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6900424824915811</v>
+        <v>0.6904428386420528</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>339003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309621</v>
+        <v>308304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>370046</v>
+        <v>368033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3285798422273649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3001010509910308</v>
+        <v>0.298824515432563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3586675214617228</v>
+        <v>0.356717319786689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>428</v>
@@ -836,19 +836,19 @@
         <v>428663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>395971</v>
+        <v>394006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463547</v>
+        <v>460862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3259514222623857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3010928404158625</v>
+        <v>0.2995985081695814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3524767165217311</v>
+        <v>0.3504353743671319</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>772</v>
@@ -857,19 +857,19 @@
         <v>767666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>727419</v>
+        <v>726480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>810469</v>
+        <v>813330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3271069361206281</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.309957517508419</v>
+        <v>0.3095571613579478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3453457073215099</v>
+        <v>0.3465647528952081</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>982134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>943657</v>
+        <v>943133</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1023857</v>
+        <v>1021041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5805497037119557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5578053038351591</v>
+        <v>0.5574960227813599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6052126006512315</v>
+        <v>0.6035481296548405</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>913</v>
@@ -982,19 +982,19 @@
         <v>935535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>895745</v>
+        <v>895670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>972175</v>
+        <v>972914</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5899833863039844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5648897519096079</v>
+        <v>0.5648429983372333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6130898217830881</v>
+        <v>0.6135557617654058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1881</v>
@@ -1003,19 +1003,19 @@
         <v>1917669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1863133</v>
+        <v>1863777</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1976232</v>
+        <v>1976989</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5851139436492696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5684738104269285</v>
+        <v>0.568670403550992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6029823216522976</v>
+        <v>0.6032135169031453</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>709597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>667874</v>
+        <v>670690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>748074</v>
+        <v>748598</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4194502962880443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3947873993487686</v>
+        <v>0.3964518703451594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4421946961648409</v>
+        <v>0.4425039772186401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>639</v>
@@ -1053,19 +1053,19 @@
         <v>650163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>613523</v>
+        <v>612784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>689953</v>
+        <v>690028</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4100166136960156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3869101782169119</v>
+        <v>0.3864442382345941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4351102480903919</v>
+        <v>0.4351570016627666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1318</v>
@@ -1074,19 +1074,19 @@
         <v>1359760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1301197</v>
+        <v>1300440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1414296</v>
+        <v>1413652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4148860563507303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3970176783477025</v>
+        <v>0.3967864830968547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4315261895730715</v>
+        <v>0.4313295964490081</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>311206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286537</v>
+        <v>287486</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>334083</v>
+        <v>336072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5673012050384157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5223326374098313</v>
+        <v>0.5240616794731833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6090052841418241</v>
+        <v>0.6126313057849343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -1199,19 +1199,19 @@
         <v>246395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>223708</v>
+        <v>222246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268264</v>
+        <v>269106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5171887675265394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.469569074998731</v>
+        <v>0.466498953078511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5630917195933962</v>
+        <v>0.5648594055622504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>532</v>
@@ -1220,19 +1220,19 @@
         <v>557601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>526645</v>
+        <v>525325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>590854</v>
+        <v>589489</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5440089878569163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5138076102070728</v>
+        <v>0.5125200856572727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5764522573914475</v>
+        <v>0.575119993378017</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>237366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214489</v>
+        <v>212500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262035</v>
+        <v>261086</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4326987949615842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.390994715858176</v>
+        <v>0.3873686942150657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4776673625901688</v>
+        <v>0.4759383205268167</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -1270,19 +1270,19 @@
         <v>230017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>208148</v>
+        <v>207306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252704</v>
+        <v>254166</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4828112324734606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4369082804066037</v>
+        <v>0.4351405944377497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.530430925001269</v>
+        <v>0.5335010469214894</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>445</v>
@@ -1291,19 +1291,19 @@
         <v>467383</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>434130</v>
+        <v>435495</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>498339</v>
+        <v>499659</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4559910121430837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4235477426085525</v>
+        <v>0.424880006621983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4861923897929272</v>
+        <v>0.4874799143427273</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1986059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6069814500043046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2009</v>
@@ -1416,19 +1416,19 @@
         <v>2068380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6124500715253164</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3970</v>
@@ -1437,19 +1437,19 @@
         <v>4054439</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6097590196875528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1285967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1230520</v>
+        <v>1228642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1342853</v>
+        <v>1344087</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3930185499956954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3760727017541687</v>
+        <v>0.3754988248421827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4104040088409021</v>
+        <v>0.4107813697732522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1286</v>
@@ -1487,19 +1487,19 @@
         <v>1308842</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1248946</v>
+        <v>1248677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1362116</v>
+        <v>1361630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3875499284746836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3698147162079696</v>
+        <v>0.3697349437656364</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4033242413741124</v>
+        <v>0.4031803630904368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2535</v>
@@ -1508,19 +1508,19 @@
         <v>2594809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2515743</v>
+        <v>2515939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2679978</v>
+        <v>2676869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3902409803124472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3783500135040389</v>
+        <v>0.3783795192393626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4030497814368185</v>
+        <v>0.402582226103281</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>642587</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>611399</v>
+        <v>613112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>671749</v>
+        <v>671146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6666004553315984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6342472445165531</v>
+        <v>0.6360238700729649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6968528778165073</v>
+        <v>0.6962269726216902</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>858</v>
@@ -1872,19 +1872,19 @@
         <v>920946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>885091</v>
+        <v>886055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>954468</v>
+        <v>954281</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6958280433826161</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6687379353968723</v>
+        <v>0.6694657114491099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7211559339423999</v>
+        <v>0.7210148831708763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1449</v>
@@ -1893,19 +1893,19 @@
         <v>1563533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1512423</v>
+        <v>1515448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1609030</v>
+        <v>1606116</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6835112461558636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6611683443442274</v>
+        <v>0.6624906747888041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7034009295970198</v>
+        <v>0.7021267806398855</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>321389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292227</v>
+        <v>292830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352577</v>
+        <v>350864</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3333995446684015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3031471221834927</v>
+        <v>0.3037730273783096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3657527554834469</v>
+        <v>0.3639761299270349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>377</v>
@@ -1943,19 +1943,19 @@
         <v>402579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>369057</v>
+        <v>369244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>438434</v>
+        <v>437470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3041719566173839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2788440660575995</v>
+        <v>0.2789851168291236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3312620646031276</v>
+        <v>0.3305342885508898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>683</v>
@@ -1964,19 +1964,19 @@
         <v>723968</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678471</v>
+        <v>681385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775078</v>
+        <v>772053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3164887538441364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2965990704029802</v>
+        <v>0.2978732193601143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3388316556557725</v>
+        <v>0.337509325211196</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1181639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1135251</v>
+        <v>1136874</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1225135</v>
+        <v>1222730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6038366378552472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.580131802679451</v>
+        <v>0.5809608797138982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6260639522303081</v>
+        <v>0.6248348208099824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1089</v>
@@ -2089,19 +2089,19 @@
         <v>1176291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1134541</v>
+        <v>1137772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1215953</v>
+        <v>1215632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6725114610407585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6486421048635366</v>
+        <v>0.6504890278398738</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6951868785520759</v>
+        <v>0.6950032880588299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2201</v>
@@ -2110,19 +2110,19 @@
         <v>2357929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2299821</v>
+        <v>2301895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2419780</v>
+        <v>2419433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6362488583061312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6205691496053428</v>
+        <v>0.6211290211906298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6529382441292818</v>
+        <v>0.652844628816786</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>775246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>731750</v>
+        <v>734155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>821634</v>
+        <v>820011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3961633621447528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.373936047769692</v>
+        <v>0.3751651791900177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4198681973205491</v>
+        <v>0.4190391202861021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -2160,19 +2160,19 @@
         <v>572811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>533149</v>
+        <v>533470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>614561</v>
+        <v>611330</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3274885389592414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3048131214479251</v>
+        <v>0.3049967119411701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3513578951364635</v>
+        <v>0.3495109721601263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1276</v>
@@ -2181,19 +2181,19 @@
         <v>1348057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1286206</v>
+        <v>1286553</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1406165</v>
+        <v>1404091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3637511416938689</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3470617558707178</v>
+        <v>0.3471553711832135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3794308503946571</v>
+        <v>0.3788709788093699</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>279159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>253533</v>
+        <v>256982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>300429</v>
+        <v>302515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5841419972984137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5305197723360717</v>
+        <v>0.5377374608891319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6286498982914581</v>
+        <v>0.6330151196419646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -2306,19 +2306,19 @@
         <v>259225</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236651</v>
+        <v>237501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280081</v>
+        <v>281279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5693721984749933</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5197900850275651</v>
+        <v>0.5216567346732883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6151809151989688</v>
+        <v>0.6178123542166977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>488</v>
@@ -2327,19 +2327,19 @@
         <v>538384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>505344</v>
+        <v>502835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>571268</v>
+        <v>570826</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5769360477731886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5415299270932782</v>
+        <v>0.5388410042896691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6121751838995173</v>
+        <v>0.6117008806756284</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>198736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177466</v>
+        <v>175380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224362</v>
+        <v>220913</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4158580027015863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3713501017085417</v>
+        <v>0.3669848803580353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4694802276639283</v>
+        <v>0.462262539110868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -2377,19 +2377,19 @@
         <v>196057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175201</v>
+        <v>174003</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218631</v>
+        <v>217781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4306278015250067</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3848190848010312</v>
+        <v>0.3821876457833022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4802099149724349</v>
+        <v>0.4783432653267116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>356</v>
@@ -2398,19 +2398,19 @@
         <v>394794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>361910</v>
+        <v>362352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>427834</v>
+        <v>430343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4230639522268113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3878248161004827</v>
+        <v>0.3882991193243715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4584700729067218</v>
+        <v>0.461158995710331</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>2103384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2043403</v>
+        <v>2041245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2164074</v>
+        <v>2158557</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6188688558188251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6012207335032571</v>
+        <v>0.6005860596969057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.636725182672382</v>
+        <v>0.63510216244155</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2181</v>
@@ -2523,19 +2523,19 @@
         <v>2356462</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2296275</v>
+        <v>2301404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2410041</v>
+        <v>2415461</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6679485858075983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6508883403660963</v>
+        <v>0.6523423259135507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6831358120082863</v>
+        <v>0.6846722056572419</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4138</v>
@@ -2544,19 +2544,19 @@
         <v>4459846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4377972</v>
+        <v>4368047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4548890</v>
+        <v>4543525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6438662886706499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6320460922217143</v>
+        <v>0.6306132565834949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6567214876683514</v>
+        <v>0.6559470261720585</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1295372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1234682</v>
+        <v>1240199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1355353</v>
+        <v>1357511</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3811311441811749</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.363274817327618</v>
+        <v>0.3648978375584498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3987792664967429</v>
+        <v>0.399413940303094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1091</v>
@@ -2594,19 +2594,19 @@
         <v>1171447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1117868</v>
+        <v>1112448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1231634</v>
+        <v>1226505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3320514141924017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3168641879917141</v>
+        <v>0.315327794342758</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3491116596339037</v>
+        <v>0.3476576740864489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2315</v>
@@ -2615,19 +2615,19 @@
         <v>2466819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2377775</v>
+        <v>2383140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2548693</v>
+        <v>2558618</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3561337113293501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3432785123316486</v>
+        <v>0.3440529738279416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3679539077782857</v>
+        <v>0.3693867434165057</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>566585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>543263</v>
+        <v>541899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>588493</v>
+        <v>587724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7558362458866397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7247243047509129</v>
+        <v>0.7229039257356935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.785061816460038</v>
+        <v>0.7840358464504718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>717</v>
@@ -2979,19 +2979,19 @@
         <v>802126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>775081</v>
+        <v>774430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>830339</v>
+        <v>825657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8081831819198818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.780934068192182</v>
+        <v>0.7802783721924952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8366093913170072</v>
+        <v>0.8318923713726284</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1290</v>
@@ -3000,19 +3000,19 @@
         <v>1368711</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1333918</v>
+        <v>1332585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1406732</v>
+        <v>1403994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7856588800881354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7656869045017027</v>
+        <v>0.7649217475695885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8074832761228539</v>
+        <v>0.8059114052229177</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>183029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161121</v>
+        <v>161890</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206351</v>
+        <v>207715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2441637541133604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2149381835399621</v>
+        <v>0.2159641535495284</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2752756952490872</v>
+        <v>0.2770960742643065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -3050,19 +3050,19 @@
         <v>190379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162166</v>
+        <v>166848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217424</v>
+        <v>218075</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1918168180801182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1633906086829928</v>
+        <v>0.1681076286273716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2190659318078179</v>
+        <v>0.2197216278075049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -3071,19 +3071,19 @@
         <v>373408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>335387</v>
+        <v>338125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>408201</v>
+        <v>409534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2143411199118646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1925167238771461</v>
+        <v>0.1940885947770823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2343130954982973</v>
+        <v>0.2350782524304114</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1555321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1517540</v>
+        <v>1509989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1598263</v>
+        <v>1594460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7522321123453082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7339590159384577</v>
+        <v>0.7303070851594197</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.773001074796748</v>
+        <v>0.7711615700674083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1455</v>
@@ -3196,19 +3196,19 @@
         <v>1518549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1481329</v>
+        <v>1478503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1559380</v>
+        <v>1555991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7679414125642545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7491190131651735</v>
+        <v>0.7476901116389852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7885902167328926</v>
+        <v>0.7868764134291256</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2916</v>
@@ -3217,19 +3217,19 @@
         <v>3073870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3012768</v>
+        <v>3019984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3125531</v>
+        <v>3129811</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7599116509350042</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7448062098740678</v>
+        <v>0.7465900574402511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7726831186110535</v>
+        <v>0.7737411245519284</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>512287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469345</v>
+        <v>473148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>550068</v>
+        <v>557619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2477678876546918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2269989252032515</v>
+        <v>0.2288384299325917</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2660409840615413</v>
+        <v>0.2696929148405796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>443</v>
@@ -3267,19 +3267,19 @@
         <v>458879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418048</v>
+        <v>421437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496099</v>
+        <v>498925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2320585874357455</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2114097832671074</v>
+        <v>0.2131235865708744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2508809868348266</v>
+        <v>0.2523098883610148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>926</v>
@@ -3288,19 +3288,19 @@
         <v>971166</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>919505</v>
+        <v>915225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1032268</v>
+        <v>1025052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2400883490649958</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2273168813889465</v>
+        <v>0.2262588754480715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2551937901259324</v>
+        <v>0.2534099425597489</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>364603</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>340085</v>
+        <v>340933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>386717</v>
+        <v>385614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6689096050425001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6239297596987843</v>
+        <v>0.625485068589516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7094821399965998</v>
+        <v>0.7074585635966333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>336</v>
@@ -3413,19 +3413,19 @@
         <v>352806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>329267</v>
+        <v>331139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>374719</v>
+        <v>375336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6491056451939663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6057974636425205</v>
+        <v>0.6092409222532023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6894209656820467</v>
+        <v>0.6905567561865794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>670</v>
@@ -3434,19 +3434,19 @@
         <v>717409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>685953</v>
+        <v>682003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>750471</v>
+        <v>748373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.659021657208735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6301254390740177</v>
+        <v>0.626497532271548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6893930727352133</v>
+        <v>0.6874659709935186</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>180467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158353</v>
+        <v>159456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>204985</v>
+        <v>204137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3310903949575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2905178600034002</v>
+        <v>0.2925414364033667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3760702403012157</v>
+        <v>0.374514931410484</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>185</v>
@@ -3484,19 +3484,19 @@
         <v>190721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168808</v>
+        <v>168191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214260</v>
+        <v>212388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3508943548060338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3105790343179531</v>
+        <v>0.3094432438134205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3942025363574795</v>
+        <v>0.3907590777467975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>350</v>
@@ -3505,19 +3505,19 @@
         <v>371188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>338126</v>
+        <v>340224</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>402644</v>
+        <v>406594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3409783427912651</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3106069272647867</v>
+        <v>0.3125340290064815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3698745609259823</v>
+        <v>0.373502467728452</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>2486509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2436433</v>
+        <v>2433890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2539991</v>
+        <v>2537584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7395280213033427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.724634585774445</v>
+        <v>0.7238783374359434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7554344891757695</v>
+        <v>0.7547183983160586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2508</v>
@@ -3630,19 +3630,19 @@
         <v>2673481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2621708</v>
+        <v>2618549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2720302</v>
+        <v>2725308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7609254478759399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7461897721247968</v>
+        <v>0.745290581303654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7742516481786959</v>
+        <v>0.7756765047673244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4876</v>
@@ -3651,19 +3651,19 @@
         <v>5159990</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5083064</v>
+        <v>5083204</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5227144</v>
+        <v>5230074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7504619524386171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7392738813289358</v>
+        <v>0.7392943110190117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7602286277052807</v>
+        <v>0.7606547810542889</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>875783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>822301</v>
+        <v>824708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>925859</v>
+        <v>928402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2604719786966573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2445655108242306</v>
+        <v>0.2452816016839412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2753654142255553</v>
+        <v>0.2761216625640563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>801</v>
@@ -3701,19 +3701,19 @@
         <v>839979</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>793158</v>
+        <v>788152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>891752</v>
+        <v>894911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2390745521240601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2257483518213042</v>
+        <v>0.2243234952326752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2538102278752034</v>
+        <v>0.2547094186963458</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1634</v>
@@ -3722,19 +3722,19 @@
         <v>1715762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1648608</v>
+        <v>1645678</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1792688</v>
+        <v>1792548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2495380475613829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2397713722947193</v>
+        <v>0.2393452189457113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2607261186710642</v>
+        <v>0.2607056889809884</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>362650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341024</v>
+        <v>339661</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>384224</v>
+        <v>384954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6327842712770937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5950499083138072</v>
+        <v>0.5926712754308725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.670427972731537</v>
+        <v>0.6717019704523995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>930</v>
@@ -4086,19 +4086,19 @@
         <v>536410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>512959</v>
+        <v>514644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>555908</v>
+        <v>555472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6677801520348813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6385848289465705</v>
+        <v>0.6406826462131751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6920531302959843</v>
+        <v>0.6915095080916269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1372</v>
@@ -4107,19 +4107,19 @@
         <v>899060</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>865304</v>
+        <v>866924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928568</v>
+        <v>930088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6532084051080936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6286831039356898</v>
+        <v>0.6298599358659409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6746469688439822</v>
+        <v>0.6757514480228604</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>210452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188878</v>
+        <v>188148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232078</v>
+        <v>233441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3672157287229063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.329572027268463</v>
+        <v>0.3282980295476005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4049500916861924</v>
+        <v>0.4073287245691276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>465</v>
@@ -4157,19 +4157,19 @@
         <v>266864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247366</v>
+        <v>247802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290315</v>
+        <v>288630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3322198479651187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3079468697040159</v>
+        <v>0.3084904919083729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3614151710534295</v>
+        <v>0.3593173537868249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>707</v>
@@ -4178,19 +4178,19 @@
         <v>477316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447808</v>
+        <v>446288</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>511072</v>
+        <v>509452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3467915948919063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3253530311560177</v>
+        <v>0.3242485519771398</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3713168960643101</v>
+        <v>0.3701400641340591</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1265117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1213578</v>
+        <v>1205423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1318159</v>
+        <v>1315563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5712744286713426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.548001319949276</v>
+        <v>0.5443189756486586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5952255858913054</v>
+        <v>0.5940536319617772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1773</v>
@@ -4303,19 +4303,19 @@
         <v>1261551</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1220151</v>
+        <v>1218144</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1303760</v>
+        <v>1305396</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5842804277915155</v>
+        <v>0.5842804277915153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5651064437504666</v>
+        <v>0.5641768826762145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6038295766367965</v>
+        <v>0.6045869414521747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2981</v>
@@ -4324,19 +4324,19 @@
         <v>2526668</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2451537</v>
+        <v>2453901</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2592909</v>
+        <v>2598429</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.577695056764904</v>
+        <v>0.5776950567649041</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5605171321472078</v>
+        <v>0.561057682244321</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5928402664946749</v>
+        <v>0.5941023164163904</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>949436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896394</v>
+        <v>898990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1000975</v>
+        <v>1009130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4287255713286573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4047744141086947</v>
+        <v>0.405946368038223</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4519986800507242</v>
+        <v>0.4556810243513416</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1129</v>
@@ -4374,19 +4374,19 @@
         <v>897602</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>855393</v>
+        <v>853757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939002</v>
+        <v>941009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4157195722084846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3961704233632034</v>
+        <v>0.3954130585478252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4348935562495334</v>
+        <v>0.4358231173237858</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1898</v>
@@ -4395,19 +4395,19 @@
         <v>1847038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1780797</v>
+        <v>1775277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1922169</v>
+        <v>1919805</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.422304943235096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4071597335053253</v>
+        <v>0.4058976835836096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4394828678527924</v>
+        <v>0.4389423177556792</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>360570</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>330351</v>
+        <v>331286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>388767</v>
+        <v>388982</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5113841353664146</v>
+        <v>0.5113841353664145</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4685244918278302</v>
+        <v>0.4698510717238226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.551374124795405</v>
+        <v>0.5516799805923746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>504</v>
@@ -4520,19 +4520,19 @@
         <v>350403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327468</v>
+        <v>327129</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>377215</v>
+        <v>374598</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4794688975059424</v>
+        <v>0.4794688975059422</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4480870374515379</v>
+        <v>0.4476227805973031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5161576749494722</v>
+        <v>0.5125760599301291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>867</v>
@@ -4541,19 +4541,19 @@
         <v>710973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>667980</v>
+        <v>672081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>747640</v>
+        <v>748423</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4951406049016421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4651990003575674</v>
+        <v>0.4680548962264109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5206763123059339</v>
+        <v>0.5212214295620931</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>344517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316320</v>
+        <v>316105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>374736</v>
+        <v>373801</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4886158646335855</v>
+        <v>0.4886158646335854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4486258752045949</v>
+        <v>0.4483200194076258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5314755081721695</v>
+        <v>0.530148928276178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>495</v>
@@ -4591,19 +4591,19 @@
         <v>380411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353599</v>
+        <v>356216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>403346</v>
+        <v>403685</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5205311024940578</v>
+        <v>0.5205311024940577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.483842325050528</v>
+        <v>0.487423940069871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.551912962548462</v>
+        <v>0.5523772194026972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>806</v>
@@ -4612,19 +4612,19 @@
         <v>724929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>688262</v>
+        <v>687479</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>767922</v>
+        <v>763821</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5048593950983579</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4793236876940661</v>
+        <v>0.4787785704379071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5348009996424327</v>
+        <v>0.5319451037735891</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1988338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1925288</v>
+        <v>1923829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2052004</v>
+        <v>2054307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5692770015708049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5512252703058318</v>
+        <v>0.5508076432605616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5875051521194014</v>
+        <v>0.5881645807998341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3207</v>
@@ -4737,19 +4737,19 @@
         <v>2148364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2096276</v>
+        <v>2096162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2200931</v>
+        <v>2204438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5817014965984051</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5675978606673808</v>
+        <v>0.5675669918388702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5959347345948866</v>
+        <v>0.5968842957936987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5220</v>
@@ -4758,19 +4758,19 @@
         <v>4136702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4049090</v>
+        <v>4042281</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4220290</v>
+        <v>4216589</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5756625794075548</v>
+        <v>0.5756625794075549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5634706149361682</v>
+        <v>0.5625230736975921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.587294668854665</v>
+        <v>0.5867796581999468</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1504404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1440738</v>
+        <v>1438435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1567454</v>
+        <v>1568913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4307229984291952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4124948478805986</v>
+        <v>0.4118354192001659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4487747296941683</v>
+        <v>0.4491923567394386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2089</v>
@@ -4808,19 +4808,19 @@
         <v>1544877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1492310</v>
+        <v>1488803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1596965</v>
+        <v>1597079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4182985034015948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4040652654051136</v>
+        <v>0.4031157042063013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.432402139332619</v>
+        <v>0.43243300816113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3411</v>
@@ -4829,19 +4829,19 @@
         <v>3049281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2965693</v>
+        <v>2969394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3136893</v>
+        <v>3143702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4243374205924451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4127053311453349</v>
+        <v>0.4132203418000532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4365293850638318</v>
+        <v>0.437476926302408</v>
       </c>
     </row>
     <row r="15">
